--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="H2">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="I2">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="J2">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9029196666666667</v>
+        <v>1.497831666666666</v>
       </c>
       <c r="N2">
-        <v>2.708759</v>
+        <v>4.493494999999999</v>
       </c>
       <c r="O2">
-        <v>0.002816370292388754</v>
+        <v>0.005149690545628369</v>
       </c>
       <c r="P2">
-        <v>0.002824259036143102</v>
+        <v>0.005179071718449603</v>
       </c>
       <c r="Q2">
-        <v>0.2279243124298889</v>
+        <v>2.55758052313</v>
       </c>
       <c r="R2">
-        <v>2.051318811869</v>
+        <v>23.01822470817</v>
       </c>
       <c r="S2">
-        <v>1.169395830155001E-06</v>
+        <v>1.036140129191917E-05</v>
       </c>
       <c r="T2">
-        <v>1.173037744121585E-06</v>
+        <v>1.044522547181651E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="H3">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="I3">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="J3">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.442291</v>
       </c>
       <c r="O3">
-        <v>0.001499589120102478</v>
+        <v>0.001652912115568146</v>
       </c>
       <c r="P3">
-        <v>0.001503789517449825</v>
+        <v>0.001662342681559543</v>
       </c>
       <c r="Q3">
-        <v>0.1213593326312222</v>
+        <v>0.8209145376339999</v>
       </c>
       <c r="R3">
-        <v>1.092233993681</v>
+        <v>7.388230838706</v>
       </c>
       <c r="S3">
-        <v>6.226501070305948E-07</v>
+        <v>3.325731046929707E-06</v>
       </c>
       <c r="T3">
-        <v>6.245892606196658E-07</v>
+        <v>3.352636353433509E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="H4">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="I4">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="J4">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.2249933333333</v>
+        <v>134.73733</v>
       </c>
       <c r="N4">
-        <v>336.67498</v>
+        <v>404.21199</v>
       </c>
       <c r="O4">
-        <v>0.3500501195796961</v>
+        <v>0.4632400087977464</v>
       </c>
       <c r="P4">
-        <v>0.3510306212211194</v>
+        <v>0.4658829898925522</v>
       </c>
       <c r="Q4">
-        <v>28.32899247546444</v>
+        <v>230.06695519626</v>
       </c>
       <c r="R4">
-        <v>254.96093227918</v>
+        <v>2070.60259676634</v>
       </c>
       <c r="S4">
-        <v>0.0001453456426834275</v>
+        <v>0.0009320590398776947</v>
       </c>
       <c r="T4">
-        <v>0.000145798300639289</v>
+        <v>0.0009395994374004289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="H5">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="I5">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="J5">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.686482</v>
+        <v>4.9501725</v>
       </c>
       <c r="N5">
-        <v>5.372964000000001</v>
+        <v>9.900345</v>
       </c>
       <c r="O5">
-        <v>0.008379624871578232</v>
+        <v>0.01701917317532092</v>
       </c>
       <c r="P5">
-        <v>0.005602064313536785</v>
+        <v>0.01141084986016318</v>
       </c>
       <c r="Q5">
-        <v>0.678149546754</v>
+        <v>8.452528447544999</v>
       </c>
       <c r="R5">
-        <v>4.068897280524</v>
+        <v>50.71517068527</v>
       </c>
       <c r="S5">
-        <v>3.479335941573026E-06</v>
+        <v>3.424331644080351E-05</v>
       </c>
       <c r="T5">
-        <v>2.326781219667933E-06</v>
+        <v>2.30135642242333E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="H6">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="I6">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="J6">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>204.3017703333333</v>
+        <v>149.1924796666667</v>
       </c>
       <c r="N6">
-        <v>612.905311</v>
+        <v>447.577439</v>
       </c>
       <c r="O6">
-        <v>0.6372542961362345</v>
+        <v>0.5129382153657362</v>
       </c>
       <c r="P6">
-        <v>0.6390392659117508</v>
+        <v>0.5158647458472754</v>
       </c>
       <c r="Q6">
-        <v>51.57196398583344</v>
+        <v>254.749441265386</v>
       </c>
       <c r="R6">
-        <v>464.1476758725009</v>
+        <v>2292.744971388474</v>
       </c>
       <c r="S6">
-        <v>0.0002645967821291058</v>
+        <v>0.001032053992424266</v>
       </c>
       <c r="T6">
-        <v>0.0002654208304893785</v>
+        <v>0.001040403353392671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>1.069543</v>
       </c>
       <c r="I7">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="J7">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9029196666666667</v>
+        <v>1.497831666666666</v>
       </c>
       <c r="N7">
-        <v>2.708759</v>
+        <v>4.493494999999999</v>
       </c>
       <c r="O7">
-        <v>0.002816370292388754</v>
+        <v>0.005149690545628369</v>
       </c>
       <c r="P7">
-        <v>0.002824259036143102</v>
+        <v>0.005179071718449603</v>
       </c>
       <c r="Q7">
-        <v>0.3219038030152222</v>
+        <v>0.5339984580872221</v>
       </c>
       <c r="R7">
-        <v>2.897134227137</v>
+        <v>4.805986122784999</v>
       </c>
       <c r="S7">
-        <v>1.651570036315591E-06</v>
+        <v>2.163361920951943E-06</v>
       </c>
       <c r="T7">
-        <v>1.65671361202105E-06</v>
+        <v>2.180863611479685E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.069543</v>
       </c>
       <c r="I8">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="J8">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.442291</v>
       </c>
       <c r="O8">
-        <v>0.001499589120102478</v>
+        <v>0.001652912115568146</v>
       </c>
       <c r="P8">
-        <v>0.001503789517449825</v>
+        <v>0.001662342681559543</v>
       </c>
       <c r="Q8">
         <v>0.1713991381125556</v>
@@ -948,10 +948,10 @@
         <v>1.542592243013</v>
       </c>
       <c r="S8">
-        <v>8.793859473093216E-07</v>
+        <v>6.943809725685017E-07</v>
       </c>
       <c r="T8">
-        <v>8.821246674936573E-07</v>
+        <v>6.99998544354594E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.069543</v>
       </c>
       <c r="I9">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="J9">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>112.2249933333333</v>
+        <v>134.73733</v>
       </c>
       <c r="N9">
-        <v>336.67498</v>
+        <v>404.21199</v>
       </c>
       <c r="O9">
-        <v>0.3500501195796961</v>
+        <v>0.4632400087977464</v>
       </c>
       <c r="P9">
-        <v>0.3510306212211194</v>
+        <v>0.4658829898925522</v>
       </c>
       <c r="Q9">
-        <v>40.00981868157111</v>
+        <v>48.03578938006333</v>
       </c>
       <c r="R9">
-        <v>360.08836813414</v>
+        <v>432.32210442057</v>
       </c>
       <c r="S9">
-        <v>0.0002052756664380814</v>
+        <v>0.0001946050517822336</v>
       </c>
       <c r="T9">
-        <v>0.0002059149677741411</v>
+        <v>0.0001961794149798298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.069543</v>
       </c>
       <c r="I10">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="J10">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.686482</v>
+        <v>4.9501725</v>
       </c>
       <c r="N10">
-        <v>5.372964000000001</v>
+        <v>9.900345</v>
       </c>
       <c r="O10">
-        <v>0.008379624871578232</v>
+        <v>0.01701917317532092</v>
       </c>
       <c r="P10">
-        <v>0.005602064313536785</v>
+        <v>0.01141084986016318</v>
       </c>
       <c r="Q10">
-        <v>0.957769339242</v>
+        <v>1.7648074487225</v>
       </c>
       <c r="R10">
-        <v>5.746616035452</v>
+        <v>10.588844692335</v>
       </c>
       <c r="S10">
-        <v>4.91396226940217E-06</v>
+        <v>7.149678383069405E-06</v>
       </c>
       <c r="T10">
-        <v>3.286177395515462E-06</v>
+        <v>4.805013058119535E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.069543</v>
       </c>
       <c r="I11">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="J11">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>204.3017703333333</v>
+        <v>149.1924796666667</v>
       </c>
       <c r="N11">
-        <v>612.905311</v>
+        <v>447.577439</v>
       </c>
       <c r="O11">
-        <v>0.6372542961362345</v>
+        <v>0.5129382153657362</v>
       </c>
       <c r="P11">
-        <v>0.6390392659117508</v>
+        <v>0.5158647458472754</v>
       </c>
       <c r="Q11">
-        <v>72.83650944920811</v>
+        <v>53.18925742670856</v>
       </c>
       <c r="R11">
-        <v>655.5285850428729</v>
+        <v>478.703316840377</v>
       </c>
       <c r="S11">
-        <v>0.0003736973450743639</v>
+        <v>0.0002154830456492755</v>
       </c>
       <c r="T11">
-        <v>0.0003748611713384965</v>
+        <v>0.0002172263127107894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="H12">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="I12">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="J12">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9029196666666667</v>
+        <v>1.497831666666666</v>
       </c>
       <c r="N12">
-        <v>2.708759</v>
+        <v>4.493494999999999</v>
       </c>
       <c r="O12">
-        <v>0.002816370292388754</v>
+        <v>0.005149690545628369</v>
       </c>
       <c r="P12">
-        <v>0.002824259036143102</v>
+        <v>0.005179071718449603</v>
       </c>
       <c r="Q12">
-        <v>310.2635784703559</v>
+        <v>730.9091396911789</v>
       </c>
       <c r="R12">
-        <v>2792.372206233204</v>
+        <v>6578.182257220609</v>
       </c>
       <c r="S12">
-        <v>0.001591848324753901</v>
+        <v>0.002961096565985529</v>
       </c>
       <c r="T12">
-        <v>0.001596805905837319</v>
+        <v>0.002985051963932921</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="H13">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="I13">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="J13">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.442291</v>
       </c>
       <c r="O13">
-        <v>0.001499589120102478</v>
+        <v>0.001652912115568146</v>
       </c>
       <c r="P13">
-        <v>0.001503789517449825</v>
+        <v>0.001662342681559543</v>
       </c>
       <c r="Q13">
-        <v>165.2012478244052</v>
+        <v>234.6021691343443</v>
       </c>
       <c r="R13">
-        <v>1486.811230419647</v>
+        <v>2111.419522209098</v>
       </c>
       <c r="S13">
-        <v>0.0008475868514539788</v>
+        <v>0.0009504323310144631</v>
       </c>
       <c r="T13">
-        <v>0.0008502265379592693</v>
+        <v>0.0009581213692488312</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="H14">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="I14">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="J14">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>112.2249933333333</v>
+        <v>134.73733</v>
       </c>
       <c r="N14">
-        <v>336.67498</v>
+        <v>404.21199</v>
       </c>
       <c r="O14">
-        <v>0.3500501195796961</v>
+        <v>0.4632400087977464</v>
       </c>
       <c r="P14">
-        <v>0.3510306212211194</v>
+        <v>0.4658829898925522</v>
       </c>
       <c r="Q14">
-        <v>38563.04088929119</v>
+        <v>65748.87428688793</v>
       </c>
       <c r="R14">
-        <v>347067.3680036207</v>
+        <v>591739.8685819913</v>
       </c>
       <c r="S14">
-        <v>0.1978527816241877</v>
+        <v>0.2663652091566091</v>
       </c>
       <c r="T14">
-        <v>0.1984689654604419</v>
+        <v>0.2685201150985445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="H15">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="I15">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="J15">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.686482</v>
+        <v>4.9501725</v>
       </c>
       <c r="N15">
-        <v>5.372964000000001</v>
+        <v>9.900345</v>
       </c>
       <c r="O15">
-        <v>0.008379624871578232</v>
+        <v>0.01701917317532092</v>
       </c>
       <c r="P15">
-        <v>0.005602064313536785</v>
+        <v>0.01141084986016318</v>
       </c>
       <c r="Q15">
-        <v>923.1358553671982</v>
+        <v>2415.576064932485</v>
       </c>
       <c r="R15">
-        <v>5538.815132203189</v>
+        <v>14493.45638959491</v>
       </c>
       <c r="S15">
-        <v>0.004736270599763408</v>
+        <v>0.009786105553106881</v>
       </c>
       <c r="T15">
-        <v>0.003167347352441212</v>
+        <v>0.0065768503772372</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="H16">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="I16">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="J16">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>204.3017703333333</v>
+        <v>149.1924796666667</v>
       </c>
       <c r="N16">
-        <v>612.905311</v>
+        <v>447.577439</v>
       </c>
       <c r="O16">
-        <v>0.6372542961362345</v>
+        <v>0.5129382153657362</v>
       </c>
       <c r="P16">
-        <v>0.6390392659117508</v>
+        <v>0.5158647458472754</v>
       </c>
       <c r="Q16">
-        <v>70202.6998541939</v>
+        <v>72802.67161411578</v>
       </c>
       <c r="R16">
-        <v>631824.298687745</v>
+        <v>655224.044527042</v>
       </c>
       <c r="S16">
-        <v>0.3601842365999038</v>
+        <v>0.2949419143974786</v>
       </c>
       <c r="T16">
-        <v>0.3613059782445978</v>
+        <v>0.2973280071078341</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="H17">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="I17">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="J17">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9029196666666667</v>
+        <v>1.497831666666666</v>
       </c>
       <c r="N17">
-        <v>2.708759</v>
+        <v>4.493494999999999</v>
       </c>
       <c r="O17">
-        <v>0.002816370292388754</v>
+        <v>0.005149690545628369</v>
       </c>
       <c r="P17">
-        <v>0.002824259036143102</v>
+        <v>0.005179071718449603</v>
       </c>
       <c r="Q17">
-        <v>0.5143775330058333</v>
+        <v>9.020542927165</v>
       </c>
       <c r="R17">
-        <v>3.086265198035</v>
+        <v>54.12325756299</v>
       </c>
       <c r="S17">
-        <v>2.639081964577461E-06</v>
+        <v>3.654448581151829E-05</v>
       </c>
       <c r="T17">
-        <v>1.764867335451088E-06</v>
+        <v>2.456008817717262E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="H18">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="I18">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="J18">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.442291</v>
       </c>
       <c r="O18">
-        <v>0.001499589120102478</v>
+        <v>0.001652912115568146</v>
       </c>
       <c r="P18">
-        <v>0.001503789517449825</v>
+        <v>0.001662342681559543</v>
       </c>
       <c r="Q18">
-        <v>0.2738826475358333</v>
+        <v>2.895351586897</v>
       </c>
       <c r="R18">
-        <v>1.643295885215</v>
+        <v>17.372109521382</v>
       </c>
       <c r="S18">
-        <v>1.40519114685817E-06</v>
+        <v>1.172979673630004E-05</v>
       </c>
       <c r="T18">
-        <v>9.397116074612342E-07</v>
+        <v>7.883127529271196E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="H19">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="I19">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="J19">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>112.2249933333333</v>
+        <v>134.73733</v>
       </c>
       <c r="N19">
-        <v>336.67498</v>
+        <v>404.21199</v>
       </c>
       <c r="O19">
-        <v>0.3500501195796961</v>
+        <v>0.4632400087977464</v>
       </c>
       <c r="P19">
-        <v>0.3510306212211194</v>
+        <v>0.4658829898925522</v>
       </c>
       <c r="Q19">
-        <v>63.93261476461667</v>
+        <v>811.4422309293301</v>
       </c>
       <c r="R19">
-        <v>383.5956885877</v>
+        <v>4868.653385575981</v>
       </c>
       <c r="S19">
-        <v>0.000328014735767367</v>
+        <v>0.003287356352549759</v>
       </c>
       <c r="T19">
-        <v>0.0002193575267735699</v>
+        <v>0.002209300804089115</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="H20">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="I20">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="J20">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.686482</v>
+        <v>4.9501725</v>
       </c>
       <c r="N20">
-        <v>5.372964000000001</v>
+        <v>9.900345</v>
       </c>
       <c r="O20">
-        <v>0.008379624871578232</v>
+        <v>0.01701917317532092</v>
       </c>
       <c r="P20">
-        <v>0.005602064313536785</v>
+        <v>0.01141084986016318</v>
       </c>
       <c r="Q20">
-        <v>1.530441781965</v>
+        <v>29.8119238141725</v>
       </c>
       <c r="R20">
-        <v>6.12176712786</v>
+        <v>119.24769525669</v>
       </c>
       <c r="S20">
-        <v>7.852133978359079E-06</v>
+        <v>0.0001207755936242177</v>
       </c>
       <c r="T20">
-        <v>3.50070591667794E-06</v>
+        <v>5.411229926469931E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="H21">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="I21">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="J21">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>204.3017703333333</v>
+        <v>149.1924796666667</v>
       </c>
       <c r="N21">
-        <v>612.905311</v>
+        <v>447.577439</v>
       </c>
       <c r="O21">
-        <v>0.6372542961362345</v>
+        <v>0.5129382153657362</v>
       </c>
       <c r="P21">
-        <v>0.6390392659117508</v>
+        <v>0.5158647458472754</v>
       </c>
       <c r="Q21">
-        <v>116.3871432779192</v>
+        <v>898.4969387370131</v>
       </c>
       <c r="R21">
-        <v>698.322859667515</v>
+        <v>5390.981632422078</v>
       </c>
       <c r="S21">
-        <v>0.0005971396319324973</v>
+        <v>0.003640036846394889</v>
       </c>
       <c r="T21">
-        <v>0.0003993328912274552</v>
+        <v>0.002446323266845317</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="H22">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="I22">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="J22">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9029196666666667</v>
+        <v>1.497831666666666</v>
       </c>
       <c r="N22">
-        <v>2.708759</v>
+        <v>4.493494999999999</v>
       </c>
       <c r="O22">
-        <v>0.002816370292388754</v>
+        <v>0.005149690545628369</v>
       </c>
       <c r="P22">
-        <v>0.002824259036143102</v>
+        <v>0.005179071718449603</v>
       </c>
       <c r="Q22">
-        <v>237.6046183129571</v>
+        <v>528.1145499163621</v>
       </c>
       <c r="R22">
-        <v>2138.441564816614</v>
+        <v>4753.030949247259</v>
       </c>
       <c r="S22">
-        <v>0.001219061919803806</v>
+        <v>0.002139524730618451</v>
       </c>
       <c r="T22">
-        <v>0.00122285851161419</v>
+        <v>0.002156833577256214</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="H23">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="I23">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="J23">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.442291</v>
       </c>
       <c r="O23">
-        <v>0.001499589120102478</v>
+        <v>0.001652912115568146</v>
       </c>
       <c r="P23">
-        <v>0.001503789517449825</v>
+        <v>0.001662342681559543</v>
       </c>
       <c r="Q23">
-        <v>126.5136553496318</v>
+        <v>169.5105618930075</v>
       </c>
       <c r="R23">
-        <v>1138.622898146686</v>
+        <v>1525.595057037068</v>
       </c>
       <c r="S23">
-        <v>0.0006490950414473014</v>
+        <v>0.0006867298757978848</v>
       </c>
       <c r="T23">
-        <v>0.0006511165539549814</v>
+        <v>0.0006922855498836523</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="H24">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="I24">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="J24">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>112.2249933333333</v>
+        <v>134.73733</v>
       </c>
       <c r="N24">
-        <v>336.67498</v>
+        <v>404.21199</v>
       </c>
       <c r="O24">
-        <v>0.3500501195796961</v>
+        <v>0.4632400087977464</v>
       </c>
       <c r="P24">
-        <v>0.3510306212211194</v>
+        <v>0.4658829898925522</v>
       </c>
       <c r="Q24">
-        <v>29532.16957227368</v>
+        <v>47506.50288242161</v>
       </c>
       <c r="R24">
-        <v>265789.5261504631</v>
+        <v>427558.5259417945</v>
       </c>
       <c r="S24">
-        <v>0.1515187019106195</v>
+        <v>0.1924607791969276</v>
       </c>
       <c r="T24">
-        <v>0.1519905849654905</v>
+        <v>0.1940177951375384</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="H25">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="I25">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="J25">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.686482</v>
+        <v>4.9501725</v>
       </c>
       <c r="N25">
-        <v>5.372964000000001</v>
+        <v>9.900345</v>
       </c>
       <c r="O25">
-        <v>0.008379624871578232</v>
+        <v>0.01701917317532092</v>
       </c>
       <c r="P25">
-        <v>0.005602064313536785</v>
+        <v>0.01141084986016318</v>
       </c>
       <c r="Q25">
-        <v>706.9516301169241</v>
+        <v>1745.36176529351</v>
       </c>
       <c r="R25">
-        <v>4241.709780701544</v>
+        <v>10472.17059176106</v>
       </c>
       <c r="S25">
-        <v>0.003627108839625491</v>
+        <v>0.007070899033765943</v>
       </c>
       <c r="T25">
-        <v>0.002425603296563712</v>
+        <v>0.004752068606378926</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="H26">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="I26">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="J26">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>204.3017703333333</v>
+        <v>149.1924796666667</v>
       </c>
       <c r="N26">
-        <v>612.905311</v>
+        <v>447.577439</v>
       </c>
       <c r="O26">
-        <v>0.6372542961362345</v>
+        <v>0.5129382153657362</v>
       </c>
       <c r="P26">
-        <v>0.6390392659117508</v>
+        <v>0.5158647458472754</v>
       </c>
       <c r="Q26">
-        <v>53762.30682838129</v>
+        <v>52603.18699591366</v>
       </c>
       <c r="R26">
-        <v>483860.7614554316</v>
+        <v>473428.682963223</v>
       </c>
       <c r="S26">
-        <v>0.2758346257771949</v>
+        <v>0.2131087270837892</v>
       </c>
       <c r="T26">
-        <v>0.2766936727740977</v>
+        <v>0.2148327858064925</v>
       </c>
     </row>
   </sheetData>
